--- a/C61/sprint0/Planification.xlsx
+++ b/C61/sprint0/Planification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Bureau\cvm-projet-final\C61\sprint0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\FoodFlow\C61\sprint0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B111A933-55B7-41A1-88EB-E9D547FDA5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92739BC-0032-4255-85F2-52E40EAEC68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="484" activeTab="3" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="484" activeTab="4" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="187">
   <si>
     <t>Membres de l'équipe</t>
   </si>
@@ -762,6 +762,24 @@
   </si>
   <si>
     <t>Documenter les components frontend</t>
+  </si>
+  <si>
+    <t>2 - Structurer compone…</t>
+  </si>
+  <si>
+    <t>1 - Création du projet…</t>
+  </si>
+  <si>
+    <t>3 - Styler avec Tailwi…</t>
+  </si>
+  <si>
+    <t>1 - Vérification des f…</t>
+  </si>
+  <si>
+    <t>2 - Vérification des p…</t>
+  </si>
+  <si>
+    <t>3 - Documentation du c…</t>
   </si>
 </sst>
 </file>
@@ -1270,48 +1288,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1329,11 +1316,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1349,27 +1348,46 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2529,17 +2547,17 @@
       <selection activeCell="C19" sqref="C19:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="111.6640625" style="38" customWidth="1"/>
-    <col min="4" max="6" width="9.21875" style="38"/>
-    <col min="7" max="7" width="9.21875" style="38" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="38" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="9.21875" style="38" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.08984375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="111.6328125" style="38" customWidth="1"/>
+    <col min="4" max="6" width="9.1796875" style="38"/>
+    <col min="7" max="7" width="9.1796875" style="38" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6328125" style="38" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1796875" style="38" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="0" style="38" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.21875" style="38"/>
+    <col min="15" max="16384" width="9.1796875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2607,7 +2625,7 @@
         <v>420-C12 : Outils et matériels informatiques</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.4">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="B7" s="40" t="str">
         <f>COUNTA(C6:C17) &amp; " étudiant" &amp; IF(COUNTA(C6:C17)&gt;1,"s","")</f>
         <v>2 étudiants</v>
@@ -3366,102 +3384,102 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.21875" style="2"/>
-    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="2"/>
+    <col min="3" max="5" width="3.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.08984375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" style="2"/>
+    <col min="15" max="15" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="71" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 1   |   FoodFlow</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
-      <c r="B3" s="61" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.5" customHeight="1">
+      <c r="B3" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.55" customHeight="1">
+    <row r="5" spans="2:17" ht="14.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59">
+      <c r="F5" s="72">
         <v>44987</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.55" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.75" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.5" customHeight="1">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72">
         <v>45008</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
-      <c r="B9" s="62">
+    <row r="9" spans="2:17" ht="8.5" customHeight="1">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" ht="18">
-      <c r="B10" s="62"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.5">
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -3484,31 +3502,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.6">
-      <c r="D12" s="65" t="s">
+    <row r="12" spans="2:17" ht="15.5">
+      <c r="D12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Créer base de donn…</v>
@@ -3523,14 +3541,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Créer le API (Node…</v>
@@ -3544,14 +3562,14 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v>3 - Créer test unitair…</v>
@@ -3566,7 +3584,7 @@
         <v>3 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.6">
+    <row r="18" spans="4:17" ht="15.5">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -3575,26 +3593,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="67" t="s">
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="68"/>
+      <c r="K19" s="54"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Créer les routes d…</v>
@@ -3609,16 +3627,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="63" t="s">
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="64"/>
+      <c r="K20" s="56"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Créer les queries …</v>
@@ -3632,16 +3650,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="67" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="K21" s="68"/>
+      <c r="K21" s="54"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Créer script créat…</v>
@@ -3655,16 +3673,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="63" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="K22" s="64"/>
+      <c r="K22" s="56"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Lié le DAO avec Ex…</v>
@@ -3678,16 +3696,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="67" t="s">
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="K23" s="68"/>
+      <c r="K23" s="54"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Création de test u…</v>
@@ -3701,16 +3719,16 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v>6</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="63" t="s">
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="K24" s="64"/>
+      <c r="K24" s="56"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6 - Création de la bas…</v>
@@ -3720,25 +3738,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="52" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>6 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.6">
-      <c r="D27" s="65" t="s">
+      <c r="K25" s="52"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.5">
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -4211,23 +4229,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B49" s="62">
+    <row r="49" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B49" s="67">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18">
-      <c r="B50" s="62"/>
+    <row r="50" spans="2:16" ht="18.5">
+      <c r="B50" s="67"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -4246,7 +4264,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.6">
+    <row r="52" spans="2:16" ht="15.5">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -4266,11 +4284,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="34"/>
       <c r="P53" s="16"/>
     </row>
@@ -4279,11 +4297,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="35"/>
       <c r="P54" s="12"/>
     </row>
@@ -4292,11 +4310,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="34"/>
       <c r="P55" s="12"/>
     </row>
@@ -4305,11 +4323,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -4318,11 +4336,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -4331,11 +4349,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -4344,11 +4362,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -4357,11 +4375,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -4370,11 +4388,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="70"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -4383,11 +4401,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -4396,11 +4414,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -4409,11 +4427,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -4422,11 +4440,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -4435,11 +4453,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -4448,11 +4466,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -4461,11 +4479,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -4474,11 +4492,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -4487,11 +4505,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -4500,11 +4518,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -4513,11 +4531,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -4526,11 +4544,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -4539,11 +4557,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -4552,11 +4570,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -4565,11 +4583,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -4578,11 +4596,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -4591,11 +4609,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -4604,11 +4622,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -4617,11 +4635,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="69"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -4630,11 +4648,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -4643,11 +4661,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="69"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -4656,11 +4674,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -4669,11 +4687,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -4682,11 +4700,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -4695,11 +4713,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -4708,11 +4726,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -4721,11 +4739,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="69"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -4738,22 +4756,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B92" s="62">
+    <row r="92" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B92" s="67">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="2:16" ht="18">
-      <c r="B93" s="62"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.5">
+      <c r="B93" s="67"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -4768,17 +4786,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.6">
+    <row r="95" spans="2:16" ht="15.5">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -4795,9 +4813,9 @@
         <f t="shared" ref="E96:F113" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>Créer Controller Class</v>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -4813,9 +4831,9 @@
         <f t="shared" si="2"/>
         <v>Créer ProductController Class</v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -4831,9 +4849,9 @@
         <f t="shared" si="2"/>
         <v>Créer TransactionController Class</v>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -4849,9 +4867,9 @@
         <f t="shared" si="2"/>
         <v>Créer StatsController Class</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -4867,9 +4885,9 @@
         <f t="shared" si="2"/>
         <v>Créer UserController Class</v>
       </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -4885,9 +4903,9 @@
         <f t="shared" si="2"/>
         <v>Créer Container Docker pour Postgresql</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -4903,9 +4921,9 @@
         <f t="shared" si="2"/>
         <v>Créer AuthController Class</v>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -4921,9 +4939,9 @@
         <f t="shared" si="2"/>
         <v>Créer WalletController</v>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -4939,9 +4957,9 @@
         <f t="shared" si="2"/>
         <v>Intrégration de Passport.js</v>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -4957,9 +4975,9 @@
         <f t="shared" si="2"/>
         <v>Intégration de librairie paiement crypto</v>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -4975,9 +4993,9 @@
         <f t="shared" si="2"/>
         <v>lié DAO aux routes</v>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="61"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -4993,9 +5011,9 @@
         <f t="shared" si="2"/>
         <v>faire test unitaires pour routes</v>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -5009,9 +5027,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="61"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -5025,9 +5043,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -5040,9 +5058,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -5055,9 +5073,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -5070,9 +5088,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="61"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -5085,36 +5103,36 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.6">
-      <c r="E116" s="65" t="s">
+    <row r="116" spans="4:11" ht="15.5">
+      <c r="E116" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.55" customHeight="1">
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.6">
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.5" customHeight="1">
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -5131,72 +5149,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -5207,17 +5225,73 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VGArG41InYXOHfVvkUYUT9BNCezQ7hzwfRmgd01LK2nLXwyGXWIXZE3H8g5/4E4lauBOi2NlArZt/IFhouJS3g==" saltValue="CdGzBanfVnMz6z3Xpkslrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
     <mergeCell ref="F126:K126"/>
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="G95:I95"/>
@@ -5234,73 +5308,17 @@
     <mergeCell ref="G103:I103"/>
     <mergeCell ref="G104:I104"/>
     <mergeCell ref="G105:I105"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K16">
@@ -5470,104 +5488,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CFE6A0-F04B-4325-BD6E-A48B06D94CE0}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="B21" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.21875" style="2"/>
-    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="2"/>
+    <col min="3" max="5" width="3.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.08984375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" style="2"/>
+    <col min="15" max="15" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="71" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 2   |   FoodFlow</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.5" customHeight="1">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.55" customHeight="1">
+    <row r="5" spans="2:17" ht="14.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59">
+      <c r="F5" s="72">
         <v>45008</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.55" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.75" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.5" customHeight="1">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72">
         <v>41377</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
-      <c r="B9" s="62">
+    <row r="9" spans="2:17" ht="8.5" customHeight="1">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" ht="18">
-      <c r="B10" s="62"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.5">
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -5590,29 +5608,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.6">
-      <c r="D12" s="65" t="s">
+    <row r="12" spans="2:17" ht="15.5">
+      <c r="D12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6" t="str">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v/>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v/>
@@ -5627,14 +5645,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>1</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>1 - Mise en place du f…</v>
@@ -5648,14 +5666,14 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v>2</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v>2 - Styling front-end …</v>
@@ -5670,7 +5688,7 @@
         <v>2 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.6">
+    <row r="18" spans="4:17" ht="15.5">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -5679,26 +5697,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="76" t="s">
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="K19" s="77"/>
+      <c r="K19" s="75"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Création du projet…</v>
@@ -5713,16 +5731,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="74" t="s">
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="75"/>
+      <c r="K20" s="77"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Structurer compone…</v>
@@ -5736,16 +5754,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="76" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="77"/>
+      <c r="K21" s="75"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Styler avec Tailwi…</v>
@@ -5759,12 +5777,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="75"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5778,12 +5796,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5794,37 +5812,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="75"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="52" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>3 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.6">
-      <c r="D27" s="65" t="s">
+      <c r="K25" s="52"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.5">
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -5846,11 +5864,21 @@
       <c r="F28" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
+      <c r="G28" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" s="23">
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P28" s="12">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -5866,11 +5894,21 @@
       <c r="F29" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
+      <c r="G29" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J29" s="28">
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="P29" s="12">
         <f>P28+$P$27</f>
         <v>2.0833333333333332E-2</v>
@@ -5887,11 +5925,21 @@
       <c r="F30" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
+      <c r="G30" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="23">
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P30" s="12">
         <f t="shared" ref="P30:P46" si="1">P29+$P$27</f>
         <v>3.125E-2</v>
@@ -5908,11 +5956,21 @@
       <c r="F31" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
+      <c r="G31" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J31" s="28">
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="P31" s="12">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
@@ -5926,11 +5984,21 @@
       <c r="F32" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
+      <c r="G32" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J32" s="23">
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P32" s="12">
         <f t="shared" si="1"/>
         <v>5.2083333333333329E-2</v>
@@ -5944,11 +6012,21 @@
       <c r="F33" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
+      <c r="G33" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J33" s="28">
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="P33" s="12">
         <f t="shared" si="1"/>
         <v>6.2499999999999993E-2</v>
@@ -5962,11 +6040,21 @@
       <c r="F34" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
+      <c r="G34" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J34" s="23">
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P34" s="12">
         <f t="shared" si="1"/>
         <v>7.2916666666666657E-2</v>
@@ -5980,11 +6068,21 @@
       <c r="F35" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
+      <c r="G35" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="28">
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="P35" s="12">
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
@@ -5998,11 +6096,21 @@
       <c r="F36" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="24"/>
+      <c r="G36" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" s="23">
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P36" s="12">
         <f t="shared" si="1"/>
         <v>9.375E-2</v>
@@ -6016,11 +6124,21 @@
       <c r="F37" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
+      <c r="G37" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J37" s="28">
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="P37" s="12">
         <f t="shared" si="1"/>
         <v>0.10416666666666667</v>
@@ -6034,11 +6152,21 @@
       <c r="F38" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
+      <c r="G38" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J38" s="23">
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P38" s="12">
         <f t="shared" si="1"/>
         <v>0.11458333333333334</v>
@@ -6052,11 +6180,21 @@
       <c r="F39" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29"/>
+      <c r="G39" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J39" s="28">
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>85</v>
+      </c>
       <c r="P39" s="12">
         <f t="shared" si="1"/>
         <v>0.125</v>
@@ -6070,11 +6208,21 @@
       <c r="F40" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="24"/>
+      <c r="G40" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J40" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="P40" s="12">
         <f t="shared" si="1"/>
         <v>0.13541666666666666</v>
@@ -6179,23 +6327,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B49" s="62">
+    <row r="49" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B49" s="67">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18">
-      <c r="B50" s="62"/>
+    <row r="50" spans="2:16" ht="18.5">
+      <c r="B50" s="67"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -6214,7 +6362,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.6">
+    <row r="52" spans="2:16" ht="15.5">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -6234,11 +6382,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="34"/>
       <c r="P53" s="16"/>
     </row>
@@ -6247,11 +6395,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="35"/>
       <c r="P54" s="12"/>
     </row>
@@ -6260,11 +6408,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="34"/>
       <c r="P55" s="12"/>
     </row>
@@ -6273,11 +6421,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -6286,11 +6434,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -6299,11 +6447,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -6312,11 +6460,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -6325,11 +6473,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -6338,11 +6486,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="70"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -6351,11 +6499,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -6364,11 +6512,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -6377,11 +6525,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -6390,11 +6538,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -6403,11 +6551,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -6416,11 +6564,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -6429,11 +6577,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -6442,11 +6590,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -6455,11 +6603,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -6468,11 +6616,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -6481,11 +6629,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -6494,11 +6642,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -6507,11 +6655,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -6520,11 +6668,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -6533,11 +6681,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -6546,11 +6694,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -6559,11 +6707,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -6572,11 +6720,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -6585,11 +6733,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="69"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -6598,11 +6746,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -6611,11 +6759,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="69"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -6624,11 +6772,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -6637,11 +6785,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -6650,11 +6798,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -6663,11 +6811,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -6676,11 +6824,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -6689,11 +6837,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="69"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -6706,22 +6854,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B92" s="62">
+    <row r="92" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B92" s="67">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="2:16" ht="18">
-      <c r="B93" s="62"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.5">
+      <c r="B93" s="67"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -6736,17 +6884,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.6">
+    <row r="95" spans="2:16" ht="15.5">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -6763,9 +6911,9 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>Création component Login</v>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -6781,9 +6929,9 @@
         <f t="shared" si="2"/>
         <v>Création component Enregistrement</v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -6799,9 +6947,9 @@
         <f t="shared" si="2"/>
         <v>Création component Accueil</v>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -6817,9 +6965,9 @@
         <f t="shared" si="2"/>
         <v>Création component Navbar</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -6835,9 +6983,9 @@
         <f t="shared" si="2"/>
         <v>Création component Wallet</v>
       </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -6853,9 +7001,9 @@
         <f t="shared" si="2"/>
         <v>Création component Statistiques</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -6871,9 +7019,9 @@
         <f t="shared" si="2"/>
         <v>Création component Inventaire</v>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -6889,9 +7037,9 @@
         <f t="shared" si="2"/>
         <v>Création component Transactions</v>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -6907,9 +7055,9 @@
         <f t="shared" si="2"/>
         <v>Création component PageTitle</v>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -6925,9 +7073,9 @@
         <f t="shared" si="2"/>
         <v>Création component DeleteModal</v>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -6943,9 +7091,9 @@
         <f t="shared" si="2"/>
         <v>Création component ProductListing</v>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="61"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -6961,9 +7109,9 @@
         <f t="shared" si="2"/>
         <v>Styler les components</v>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -6977,9 +7125,9 @@
         <f t="shared" si="2"/>
         <v>Créer projet (dossiers et structure de dossiers)</v>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="61"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -6993,9 +7141,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -7008,9 +7156,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -7023,9 +7171,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -7038,9 +7186,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="61"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -7053,36 +7201,36 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.6">
-      <c r="E116" s="65" t="s">
+    <row r="116" spans="4:11" ht="15.5">
+      <c r="E116" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.55" customHeight="1">
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.6">
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.5" customHeight="1">
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -7099,72 +7247,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -7175,68 +7323,22 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tZNTEcmkB6zVk+InZD4s3oDoXS4P7MLBpH4QzqPP/6fG7+9Yj7DFP9ZLxlIng1+elQTER5ts8rZYETc7em1P2A==" saltValue="ez6+wzq7dlum8NJb3bwlnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:K49"/>
     <mergeCell ref="F122:K122"/>
@@ -7253,22 +7355,68 @@
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="E116:K116"/>
     <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -7351,7 +7499,7 @@
       <formula>COUNTA(F121:F126)&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
+  <dataValidations xWindow="1160" yWindow="977" count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Élément rétrospectif" prompt="Veuillez exprimer un élément clé issu de vos réflexion sur le déroulement de ce sprint, notamment, une façon d’améliorer la qualité ainsi que l’efficacité._x000a__x000a_Soyez concis et précis." sqref="F121:K126" xr:uid="{A759F848-D86D-41EC-AA39-8775D521C497}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Commentaire général sur la tâche" prompt="Veuillez saisir un très court texte représentant votre état d'esprit lié à cette tâche. Soyez court et concis." sqref="G96:I113" xr:uid="{60775D91-3C84-4D52-B744-78EE0709DFC6}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Conclusion de l'examination" prompt="Veuillez faire un résumé des conclusions que l'examination du travail a permi de réaliser. _x000a__x000a_Vous pouvez utiliser ALT-ENTER pour entrer un saut de ligne dans une cellule multiligne." sqref="E117:K117" xr:uid="{00B77B5B-C4F0-4C1C-BD2F-189F76F220B0}"/>
@@ -7437,104 +7585,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1551E4-4563-4C0D-A5F7-A45C2F70E630}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.21875" style="2"/>
-    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="2"/>
+    <col min="3" max="5" width="3.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.08984375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" style="2"/>
+    <col min="15" max="15" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="71" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 3  |   FoodFlow</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.5" customHeight="1">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.55" customHeight="1">
+    <row r="5" spans="2:17" ht="14.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59">
+      <c r="F5" s="72">
         <v>45029</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.55" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.75" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.5" customHeight="1">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72">
         <v>45049</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
-      <c r="B9" s="62">
+    <row r="9" spans="2:17" ht="8.5" customHeight="1">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" ht="18">
-      <c r="B10" s="62"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.5">
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -7557,31 +7705,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.6">
-      <c r="D12" s="65" t="s">
+    <row r="12" spans="2:17" ht="15.5">
+      <c r="D12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Finaliser Projet</v>
@@ -7596,14 +7744,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Lié Front-End Back…</v>
@@ -7617,12 +7765,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -7637,7 +7785,7 @@
         <v>2 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.6">
+    <row r="18" spans="4:17" ht="15.5">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -7646,26 +7794,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="76" t="s">
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="77"/>
+      <c r="K19" s="75"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Vérification des f…</v>
@@ -7680,16 +7828,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="74" t="s">
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="75"/>
+      <c r="K20" s="77"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Vérification des p…</v>
@@ -7703,12 +7851,12 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="78" t="s">
         <v>168</v>
       </c>
@@ -7726,10 +7874,10 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="80"/>
       <c r="K22" s="81"/>
       <c r="P22" s="2" t="str">
@@ -7745,10 +7893,10 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="78"/>
       <c r="K23" s="79"/>
       <c r="P23" s="2" t="str">
@@ -7761,10 +7909,10 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="80"/>
       <c r="K24" s="81"/>
       <c r="P24" s="2" t="str">
@@ -7773,25 +7921,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="52" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>3 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.6">
-      <c r="D27" s="65" t="s">
+      <c r="K25" s="52"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.5">
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -7813,11 +7961,21 @@
       <c r="F28" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
+      <c r="G28" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P28" s="12">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -7833,11 +7991,21 @@
       <c r="F29" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
+      <c r="G29" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J29" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="P29" s="12">
         <f>P28+$P$27</f>
         <v>2.0833333333333332E-2</v>
@@ -7854,11 +8022,21 @@
       <c r="F30" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
+      <c r="G30" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P30" s="12">
         <f t="shared" ref="P30:P46" si="1">P29+$P$27</f>
         <v>3.125E-2</v>
@@ -7875,11 +8053,21 @@
       <c r="F31" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
+      <c r="G31" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J31" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="P31" s="12">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
@@ -7893,11 +8081,21 @@
       <c r="F32" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
+      <c r="G32" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J32" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P32" s="12">
         <f t="shared" si="1"/>
         <v>5.2083333333333329E-2</v>
@@ -7911,11 +8109,21 @@
       <c r="F33" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
+      <c r="G33" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J33" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="P33" s="12">
         <f t="shared" si="1"/>
         <v>6.2499999999999993E-2</v>
@@ -7929,11 +8137,21 @@
       <c r="F34" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
+      <c r="G34" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J34" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P34" s="12">
         <f t="shared" si="1"/>
         <v>7.2916666666666657E-2</v>
@@ -7947,11 +8165,21 @@
       <c r="F35" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
+      <c r="G35" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="P35" s="12">
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
@@ -7965,11 +8193,21 @@
       <c r="F36" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="24"/>
+      <c r="G36" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P36" s="12">
         <f t="shared" si="1"/>
         <v>9.375E-2</v>
@@ -7983,11 +8221,21 @@
       <c r="F37" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
+      <c r="G37" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J37" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="P37" s="12">
         <f t="shared" si="1"/>
         <v>0.10416666666666667</v>
@@ -8001,11 +8249,21 @@
       <c r="F38" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
+      <c r="G38" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J38" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P38" s="12">
         <f t="shared" si="1"/>
         <v>0.11458333333333334</v>
@@ -8019,11 +8277,21 @@
       <c r="F39" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29"/>
+      <c r="G39" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J39" s="28">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="P39" s="12">
         <f t="shared" si="1"/>
         <v>0.125</v>
@@ -8037,11 +8305,21 @@
       <c r="F40" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="24"/>
+      <c r="G40" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J40" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="P40" s="12">
         <f t="shared" si="1"/>
         <v>0.13541666666666666</v>
@@ -8146,23 +8424,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B49" s="62">
+    <row r="49" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B49" s="67">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18">
-      <c r="B50" s="62"/>
+    <row r="50" spans="2:16" ht="18.5">
+      <c r="B50" s="67"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -8181,7 +8459,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.6">
+    <row r="52" spans="2:16" ht="15.5">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -8201,11 +8479,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="34"/>
       <c r="P53" s="16"/>
     </row>
@@ -8214,11 +8492,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="35"/>
       <c r="P54" s="12"/>
     </row>
@@ -8227,11 +8505,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="34"/>
       <c r="P55" s="12"/>
     </row>
@@ -8240,11 +8518,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -8253,11 +8531,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -8266,11 +8544,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -8279,11 +8557,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -8292,11 +8570,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -8305,11 +8583,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="70"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -8318,11 +8596,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -8331,11 +8609,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -8344,11 +8622,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -8357,11 +8635,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -8370,11 +8648,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -8383,11 +8661,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -8396,11 +8674,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -8409,11 +8687,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -8422,11 +8700,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -8435,11 +8713,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -8448,11 +8726,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -8461,11 +8739,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -8474,11 +8752,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -8487,11 +8765,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -8500,11 +8778,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -8513,11 +8791,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -8526,11 +8804,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -8539,11 +8817,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -8552,11 +8830,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="69"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -8565,11 +8843,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -8578,11 +8856,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="69"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -8591,11 +8869,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -8604,11 +8882,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -8617,11 +8895,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -8630,11 +8908,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -8643,11 +8921,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -8656,11 +8934,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="69"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -8673,22 +8951,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B92" s="62">
+    <row r="92" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B92" s="67">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="2:16" ht="18">
-      <c r="B93" s="62"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.5">
+      <c r="B93" s="67"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -8703,17 +8981,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.6">
+    <row r="95" spans="2:16" ht="15.5">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -8730,9 +9008,9 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>Vérifier transactions</v>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -8748,9 +9026,9 @@
         <f t="shared" si="2"/>
         <v>Vérifier le login</v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -8766,9 +9044,9 @@
         <f t="shared" si="2"/>
         <v>Vérifier création de compte</v>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -8784,9 +9062,9 @@
         <f t="shared" si="2"/>
         <v>Vérifier ajout d'argent compte</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -8802,9 +9080,9 @@
         <f t="shared" si="2"/>
         <v>Vérifier retrait d'argent compte</v>
       </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -8820,9 +9098,9 @@
         <f t="shared" si="2"/>
         <v>Vérification des statistiques</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -8838,9 +9116,9 @@
         <f t="shared" si="2"/>
         <v>Vérification de la déconnection</v>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -8856,9 +9134,9 @@
         <f t="shared" si="2"/>
         <v>Vérification de l'ajout de produit</v>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -8874,9 +9152,9 @@
         <f t="shared" si="2"/>
         <v>Vérification de la modification de produit</v>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -8892,9 +9170,9 @@
         <f t="shared" si="2"/>
         <v>Vérification de la suppression de produit</v>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -8910,9 +9188,9 @@
         <f t="shared" si="2"/>
         <v>Vérification achat produit</v>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="61"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -8928,9 +9206,9 @@
         <f t="shared" si="2"/>
         <v>Documenter les classes backend</v>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -8944,9 +9222,9 @@
         <f t="shared" si="2"/>
         <v>Documenter les components frontend</v>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="61"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -8960,9 +9238,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -8975,9 +9253,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -8990,9 +9268,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -9005,9 +9283,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="61"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -9020,36 +9298,36 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.6">
-      <c r="E116" s="65" t="s">
+    <row r="116" spans="4:11" ht="15.5">
+      <c r="E116" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.55" customHeight="1">
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.6">
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.5" customHeight="1">
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -9066,72 +9344,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -9142,16 +9420,74 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eItl4O/uLGUZ5V7FzXI1dDByfpwyPjFacOCzKiOpI2IpN12/xHbpao9Qb0n4BPutBeSA+KjVypuoZTLK8e7s5A==" saltValue="Xy/5R8JdvZ2a1R+l2hFTJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="F88:J88"/>
     <mergeCell ref="F70:J70"/>
     <mergeCell ref="F71:J71"/>
     <mergeCell ref="F19:I19"/>
@@ -9168,74 +9504,16 @@
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="F55:J55"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -9404,11 +9682,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD88741D-3A64-4935-98BF-84A80906FBB5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="38"/>
+    <col min="1" max="16384" width="9.1796875" style="38"/>
   </cols>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="kdap5/q7x4iDvSaZGxscJoKXINirPaeAAa3QEP1m1KV+XiN9t5TfN/dJ/6nuVf9OKYOQDwyFI9eGAtTvuOBctQ==" saltValue="bbvw6dZ1oKIuhw+KRTQuGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
